--- a/planilhas/CA.xlsx
+++ b/planilhas/CA.xlsx
@@ -1,14 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325482BC-799D-4C4E-A306-501523A44F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Colégio de Aplicação" sheetId="1" r:id="rId4"/>
+    <sheet name="Colégio de Aplicação" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Colégio de Aplicação'!$A$1:$J$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Colégio de Aplicação'!$A$1:$J$82</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="wqNyjg05tGtcfLL8B0bz5leMVtuZbv0cb8qhq+KV1wI="/>
@@ -18,38 +28,62 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
+ID#AAABBg0I_PM
+UFSC    (2023-11-30 18:02:47)
+Se não tiver número de patrimônio, deixar em branco.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAABBg0I_PI
 UFSC    (2023-11-30 18:02:47)
 Código conforme o SIEF.</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <t xml:space="preserve">======
-ID#AAABBg0I_PM
-UFSC    (2023-11-30 18:02:47)
-Se não tiver número de patrimônio, deixar em branco.</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C1">
-      <text>
-        <t xml:space="preserve">======
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>======
 ID#AAABBg0I_PQ
 UFSC    (2023-11-30 18:02:47)
 Código SIP do Ambiente, conforme o SIEF.</t>
+        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
+    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mim7WNDtiSAgnBGF+DuOrVwYjKm7g=="/>
     </ext>
   </extLst>
@@ -57,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="145">
   <si>
     <t>N. Patrimônio</t>
   </si>
@@ -485,34 +519,50 @@
   </si>
   <si>
     <t>Não se sabe</t>
+  </si>
+  <si>
+    <t>Não Ramon</t>
+  </si>
+  <si>
+    <t>Não Kaleb</t>
+  </si>
+  <si>
+    <t>Não Dalila</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -520,7 +570,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -530,7 +580,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -544,6 +600,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -552,61 +609,65 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -796,33 +857,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J101" sqref="J101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.29"/>
-    <col customWidth="1" min="2" max="2" width="11.86"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="13.57"/>
-    <col customWidth="1" min="5" max="5" width="9.86"/>
-    <col customWidth="1" min="6" max="6" width="15.43"/>
-    <col customWidth="1" min="7" max="7" width="14.14"/>
-    <col customWidth="1" min="8" max="8" width="14.43"/>
-    <col customWidth="1" min="9" max="9" width="16.14"/>
-    <col customWidth="1" min="10" max="10" width="58.43"/>
-    <col customWidth="1" min="11" max="26" width="8.71"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="58.42578125" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -854,9 +917,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>237938.0</v>
+        <v>237938</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>10</v>
@@ -871,7 +934,7 @@
         <v>13</v>
       </c>
       <c r="F2" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>14</v>
@@ -884,9 +947,9 @@
       </c>
       <c r="J2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>176925.0</v>
+        <v>176925</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>10</v>
@@ -901,7 +964,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>14</v>
@@ -914,9 +977,9 @@
       </c>
       <c r="J3" s="4"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>177445.0</v>
+        <v>177445</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -931,7 +994,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>14</v>
@@ -944,9 +1007,9 @@
       </c>
       <c r="J4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>177470.0</v>
+        <v>177470</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>10</v>
@@ -961,7 +1024,7 @@
         <v>13</v>
       </c>
       <c r="F5" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>14</v>
@@ -974,9 +1037,9 @@
       </c>
       <c r="J5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>176935.0</v>
+        <v>176935</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -991,7 +1054,7 @@
         <v>13</v>
       </c>
       <c r="F6" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>14</v>
@@ -1004,9 +1067,9 @@
       </c>
       <c r="J6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>150219.0</v>
+        <v>150219</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
@@ -1021,7 +1084,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="3">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>15</v>
@@ -1034,9 +1097,9 @@
       </c>
       <c r="J7" s="4"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>150220.0</v>
+        <v>150220</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
@@ -1051,7 +1114,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="3">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>14</v>
@@ -1064,9 +1127,9 @@
       </c>
       <c r="J8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>176941.0</v>
+        <v>176941</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
@@ -1081,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -1094,9 +1157,9 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>107038.0</v>
+        <v>107038</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -1111,7 +1174,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="3">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>14</v>
@@ -1124,9 +1187,9 @@
       </c>
       <c r="J10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>177461.0</v>
+        <v>177461</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
@@ -1141,7 +1204,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>14</v>
@@ -1154,9 +1217,9 @@
       </c>
       <c r="J11" s="4"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>325038.0</v>
+        <v>325038</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -1171,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>14</v>
@@ -1184,9 +1247,9 @@
       </c>
       <c r="J12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>177436.0</v>
+        <v>177436</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>10</v>
@@ -1201,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>14</v>
@@ -1214,9 +1277,9 @@
       </c>
       <c r="J13" s="4"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>158977.0</v>
+        <v>158977</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>10</v>
@@ -1231,7 +1294,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="3">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>15</v>
@@ -1246,7 +1309,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>10</v>
@@ -1261,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>15</v>
@@ -1274,9 +1337,9 @@
       </c>
       <c r="J15" s="4"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>177419.0</v>
+        <v>177419</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
@@ -1291,7 +1354,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>14</v>
@@ -1304,9 +1367,9 @@
       </c>
       <c r="J16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>325037.0</v>
+        <v>325037</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>10</v>
@@ -1321,7 +1384,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>15</v>
@@ -1334,9 +1397,9 @@
       </c>
       <c r="J17" s="4"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>177430.0</v>
+        <v>177430</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>10</v>
@@ -1351,7 +1414,7 @@
         <v>13</v>
       </c>
       <c r="F18" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>14</v>
@@ -1364,9 +1427,9 @@
       </c>
       <c r="J18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>237926.0</v>
+        <v>237926</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
@@ -1381,7 +1444,7 @@
         <v>13</v>
       </c>
       <c r="F19" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>14</v>
@@ -1394,9 +1457,9 @@
       </c>
       <c r="J19" s="4"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>237941.0</v>
+        <v>237941</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>10</v>
@@ -1411,7 +1474,7 @@
         <v>34</v>
       </c>
       <c r="F20" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>14</v>
@@ -1424,9 +1487,9 @@
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>177465.0</v>
+        <v>177465</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>10</v>
@@ -1441,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>14</v>
@@ -1454,9 +1517,9 @@
       </c>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>177674.0</v>
+        <v>177674</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>10</v>
@@ -1471,7 +1534,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="3">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>15</v>
@@ -1484,9 +1547,9 @@
       </c>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>177441.0</v>
+        <v>177441</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>10</v>
@@ -1501,7 +1564,7 @@
         <v>13</v>
       </c>
       <c r="F23" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>14</v>
@@ -1514,9 +1577,9 @@
       </c>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>177441.0</v>
+        <v>177441</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>10</v>
@@ -1531,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>14</v>
@@ -1544,9 +1607,9 @@
       </c>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>326343.0</v>
+        <v>326343</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>10</v>
@@ -1561,7 +1624,7 @@
         <v>13</v>
       </c>
       <c r="F25" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>14</v>
@@ -1574,9 +1637,9 @@
       </c>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" ht="33.0" customHeight="1">
+    <row r="26" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>150232.0</v>
+        <v>150232</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>10</v>
@@ -1591,7 +1654,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>15</v>
@@ -1606,9 +1669,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" ht="35.25" customHeight="1">
+    <row r="27" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>150231.0</v>
+        <v>150231</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>10</v>
@@ -1623,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="F27" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>14</v>
@@ -1638,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" ht="51.75" customHeight="1">
+    <row r="28" spans="1:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>10</v>
@@ -1653,7 +1716,7 @@
         <v>13</v>
       </c>
       <c r="F28" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>14</v>
@@ -1668,9 +1731,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" ht="29.25" customHeight="1">
+    <row r="29" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>150234.0</v>
+        <v>150234</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>10</v>
@@ -1685,7 +1748,7 @@
         <v>13</v>
       </c>
       <c r="F29" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>14</v>
@@ -1700,9 +1763,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" ht="59.25" customHeight="1">
+    <row r="30" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>150234.0</v>
+        <v>150234</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>10</v>
@@ -1717,7 +1780,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>14</v>
@@ -1732,9 +1795,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" ht="30.75" customHeight="1">
+    <row r="31" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>150233.0</v>
+        <v>150233</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>10</v>
@@ -1749,7 +1812,7 @@
         <v>13</v>
       </c>
       <c r="F31" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>14</v>
@@ -1764,9 +1827,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" ht="30.75" customHeight="1">
+    <row r="32" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>150238.0</v>
+        <v>150238</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>10</v>
@@ -1781,7 +1844,7 @@
         <v>13</v>
       </c>
       <c r="F32" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>14</v>
@@ -1796,9 +1859,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>150237.0</v>
+        <v>150237</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>10</v>
@@ -1813,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="F33" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>14</v>
@@ -1828,9 +1891,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>177453.0</v>
+        <v>177453</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>10</v>
@@ -1845,7 +1908,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>14</v>
@@ -1858,9 +1921,9 @@
       </c>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <v>147100.0</v>
+        <v>147100</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>10</v>
@@ -1875,7 +1938,7 @@
         <v>13</v>
       </c>
       <c r="F35" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>14</v>
@@ -1888,9 +1951,9 @@
       </c>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
-        <v>148964.0</v>
+        <v>148964</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>10</v>
@@ -1905,7 +1968,7 @@
         <v>13</v>
       </c>
       <c r="F36" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>14</v>
@@ -1918,7 +1981,7 @@
       </c>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="3" t="s">
         <v>10</v>
@@ -1933,7 +1996,7 @@
         <v>13</v>
       </c>
       <c r="F37" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>14</v>
@@ -1946,9 +2009,9 @@
       </c>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
-        <v>237930.0</v>
+        <v>237930</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>59</v>
@@ -1963,7 +2026,7 @@
         <v>34</v>
       </c>
       <c r="F38" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>15</v>
@@ -1976,9 +2039,9 @@
       </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
-        <v>237934.0</v>
+        <v>237934</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>59</v>
@@ -1993,7 +2056,7 @@
         <v>34</v>
       </c>
       <c r="F39" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>14</v>
@@ -2008,9 +2071,9 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
-        <v>326329.0</v>
+        <v>326329</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>59</v>
@@ -2025,7 +2088,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="3">
-        <v>22000.0</v>
+        <v>22000</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>15</v>
@@ -2040,9 +2103,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
-        <v>237932.0</v>
+        <v>237932</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>59</v>
@@ -2057,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="F41" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>15</v>
@@ -2072,9 +2135,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" ht="33.75" customHeight="1">
+    <row r="42" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
-        <v>248970.0</v>
+        <v>248970</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>59</v>
@@ -2089,7 +2152,7 @@
         <v>64</v>
       </c>
       <c r="F42" s="3">
-        <v>18000.0</v>
+        <v>18000</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>14</v>
@@ -2104,9 +2167,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" ht="50.25" customHeight="1">
+    <row r="43" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
-        <v>237937.0</v>
+        <v>237937</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>59</v>
@@ -2121,7 +2184,7 @@
         <v>34</v>
       </c>
       <c r="F43" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>15</v>
@@ -2136,9 +2199,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
-        <v>248944.0</v>
+        <v>248944</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>59</v>
@@ -2153,7 +2216,7 @@
         <v>64</v>
       </c>
       <c r="F44" s="3">
-        <v>18000.0</v>
+        <v>18000</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>14</v>
@@ -2166,9 +2229,9 @@
       </c>
       <c r="J44" s="4"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
-        <v>237936.0</v>
+        <v>237936</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>59</v>
@@ -2183,7 +2246,7 @@
         <v>34</v>
       </c>
       <c r="F45" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>14</v>
@@ -2196,9 +2259,9 @@
       </c>
       <c r="J45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
-        <v>237931.0</v>
+        <v>237931</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>59</v>
@@ -2213,7 +2276,7 @@
         <v>34</v>
       </c>
       <c r="F46" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>15</v>
@@ -2226,9 +2289,9 @@
       </c>
       <c r="J46" s="4"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
-        <v>107164.0</v>
+        <v>107164</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>59</v>
@@ -2243,7 +2306,7 @@
         <v>68</v>
       </c>
       <c r="F47" s="3">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>14</v>
@@ -2258,9 +2321,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
-        <v>325398.0</v>
+        <v>325398</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>59</v>
@@ -2275,7 +2338,7 @@
         <v>34</v>
       </c>
       <c r="F48" s="3">
-        <v>18000.0</v>
+        <v>18000</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>70</v>
@@ -2288,9 +2351,9 @@
       </c>
       <c r="J48" s="3"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
-        <v>326322.0</v>
+        <v>326322</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>59</v>
@@ -2305,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="F49" s="3">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>15</v>
@@ -2318,9 +2381,9 @@
       </c>
       <c r="J49" s="3"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
-        <v>237922.0</v>
+        <v>237922</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>59</v>
@@ -2335,7 +2398,7 @@
         <v>34</v>
       </c>
       <c r="F50" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>14</v>
@@ -2348,9 +2411,9 @@
       </c>
       <c r="J50" s="3"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
-        <v>325039.0</v>
+        <v>325039</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>59</v>
@@ -2365,7 +2428,7 @@
         <v>13</v>
       </c>
       <c r="F51" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>14</v>
@@ -2378,9 +2441,9 @@
       </c>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
-        <v>237923.0</v>
+        <v>237923</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>59</v>
@@ -2395,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="F52" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>14</v>
@@ -2408,9 +2471,9 @@
       </c>
       <c r="J52" s="3"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
-        <v>237929.0</v>
+        <v>237929</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>59</v>
@@ -2425,7 +2488,7 @@
         <v>34</v>
       </c>
       <c r="F53" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>15</v>
@@ -2438,9 +2501,9 @@
       </c>
       <c r="J53" s="3"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
-        <v>237921.0</v>
+        <v>237921</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>59</v>
@@ -2455,7 +2518,7 @@
         <v>34</v>
       </c>
       <c r="F54" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>15</v>
@@ -2468,7 +2531,7 @@
       </c>
       <c r="J54" s="3"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>78</v>
       </c>
@@ -2485,7 +2548,7 @@
         <v>80</v>
       </c>
       <c r="F55" s="3">
-        <v>28000.0</v>
+        <v>28000</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>14</v>
@@ -2498,9 +2561,9 @@
       </c>
       <c r="J55" s="3"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
-        <v>326323.0</v>
+        <v>326323</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>59</v>
@@ -2515,7 +2578,7 @@
         <v>13</v>
       </c>
       <c r="F56" s="3">
-        <v>24000.0</v>
+        <v>24000</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>14</v>
@@ -2528,9 +2591,9 @@
       </c>
       <c r="J56" s="3"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
-        <v>237935.0</v>
+        <v>237935</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>59</v>
@@ -2545,7 +2608,7 @@
         <v>34</v>
       </c>
       <c r="F57" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>14</v>
@@ -2558,9 +2621,9 @@
       </c>
       <c r="J57" s="3"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
-        <v>325398.0</v>
+        <v>325398</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>59</v>
@@ -2573,7 +2636,7 @@
         <v>34</v>
       </c>
       <c r="F58" s="3">
-        <v>18000.0</v>
+        <v>18000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>14</v>
@@ -2588,9 +2651,9 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
-        <v>12145.0</v>
+        <v>12145</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>59</v>
@@ -2605,7 +2668,7 @@
         <v>80</v>
       </c>
       <c r="F59" s="3">
-        <v>28000.0</v>
+        <v>28000</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>14</v>
@@ -2620,9 +2683,9 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
-        <v>176929.0</v>
+        <v>176929</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>86</v>
@@ -2637,12 +2700,12 @@
         <v>13</v>
       </c>
       <c r="F60" s="3">
-        <v>12000.0</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="10" t="s">
+        <v>12000</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -2652,7 +2715,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>78</v>
       </c>
@@ -2669,12 +2732,12 @@
         <v>80</v>
       </c>
       <c r="F61" s="3">
-        <v>28000.0</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H61" s="10" t="s">
+        <v>28000</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -2684,9 +2747,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
-        <v>176926.0</v>
+        <v>176926</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>86</v>
@@ -2701,12 +2764,12 @@
         <v>13</v>
       </c>
       <c r="F62" s="3">
-        <v>12000.0</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H62" s="10" t="s">
+        <v>12000</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -2714,9 +2777,9 @@
       </c>
       <c r="J62" s="3"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
-        <v>177422.0</v>
+        <v>177422</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>86</v>
@@ -2731,24 +2794,24 @@
         <v>13</v>
       </c>
       <c r="F63" s="3">
-        <v>9000.0</v>
-      </c>
-      <c r="G63" s="10" t="s">
+        <v>9000</v>
+      </c>
+      <c r="G63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I63" s="10" t="s">
+      <c r="I63" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J63" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
-        <v>326332.0</v>
+        <v>326332</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>86</v>
@@ -2763,12 +2826,12 @@
         <v>13</v>
       </c>
       <c r="F64" s="3">
-        <v>9000.0</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H64" s="10" t="s">
+        <v>9000</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -2778,9 +2841,9 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
-        <v>105484.0</v>
+        <v>105484</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>86</v>
@@ -2795,7 +2858,7 @@
         <v>13</v>
       </c>
       <c r="F65" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>15</v>
@@ -2808,9 +2871,9 @@
       </c>
       <c r="J65" s="3"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
-        <v>105485.0</v>
+        <v>105485</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>86</v>
@@ -2825,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="F66" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>14</v>
@@ -2840,9 +2903,9 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
-        <v>176953.0</v>
+        <v>176953</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>86</v>
@@ -2857,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="F67" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>14</v>
@@ -2868,13 +2931,13 @@
       <c r="I67" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="10" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
-        <v>176951.0</v>
+        <v>176951</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>86</v>
@@ -2889,12 +2952,12 @@
         <v>13</v>
       </c>
       <c r="F68" s="3">
-        <v>12000.0</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H68" s="10" t="s">
+        <v>12000</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -2904,9 +2967,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
-        <v>176948.0</v>
+        <v>176948</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>86</v>
@@ -2921,7 +2984,7 @@
         <v>13</v>
       </c>
       <c r="F69" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>15</v>
@@ -2936,9 +2999,9 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
-        <v>177444.0</v>
+        <v>177444</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>86</v>
@@ -2953,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="F70" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>14</v>
@@ -2968,9 +3031,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
-        <v>177458.0</v>
+        <v>177458</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>86</v>
@@ -2985,7 +3048,7 @@
         <v>13</v>
       </c>
       <c r="F71" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>14</v>
@@ -3000,9 +3063,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
-        <v>177445.0</v>
+        <v>177445</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>86</v>
@@ -3017,7 +3080,7 @@
         <v>13</v>
       </c>
       <c r="F72" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>14</v>
@@ -3032,9 +3095,9 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
-        <v>325041.0</v>
+        <v>325041</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>86</v>
@@ -3049,7 +3112,7 @@
         <v>13</v>
       </c>
       <c r="F73" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>15</v>
@@ -3062,9 +3125,9 @@
       </c>
       <c r="J73" s="4"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
-        <v>176947.0</v>
+        <v>176947</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>86</v>
@@ -3079,7 +3142,7 @@
         <v>13</v>
       </c>
       <c r="F74" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>14</v>
@@ -3094,9 +3157,9 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
-        <v>326338.0</v>
+        <v>326338</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>86</v>
@@ -3111,7 +3174,7 @@
         <v>13</v>
       </c>
       <c r="F75" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>15</v>
@@ -3126,9 +3189,9 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
-        <v>177428.0</v>
+        <v>177428</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>119</v>
@@ -3143,7 +3206,7 @@
         <v>13</v>
       </c>
       <c r="F76" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>14</v>
@@ -3158,9 +3221,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="77" ht="15.75" customHeight="1">
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
-        <v>177452.0</v>
+        <v>177452</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>119</v>
@@ -3175,7 +3238,7 @@
         <v>13</v>
       </c>
       <c r="F77" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>15</v>
@@ -3188,9 +3251,9 @@
       </c>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" ht="15.75" customHeight="1">
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
-        <v>326342.0</v>
+        <v>326342</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>119</v>
@@ -3205,7 +3268,7 @@
         <v>13</v>
       </c>
       <c r="F78" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>14</v>
@@ -3218,9 +3281,9 @@
       </c>
       <c r="J78" s="3"/>
     </row>
-    <row r="79" ht="15.75" customHeight="1">
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
-        <v>148960.0</v>
+        <v>148960</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>119</v>
@@ -3235,12 +3298,12 @@
         <v>13</v>
       </c>
       <c r="F79" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H79" s="10" t="s">
+      <c r="H79" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -3248,9 +3311,9 @@
       </c>
       <c r="J79" s="4"/>
     </row>
-    <row r="80" ht="15.75" customHeight="1">
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
-        <v>148957.0</v>
+        <v>148957</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>119</v>
@@ -3265,7 +3328,7 @@
         <v>13</v>
       </c>
       <c r="F80" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>15</v>
@@ -3278,9 +3341,9 @@
       </c>
       <c r="J80" s="4"/>
     </row>
-    <row r="81" ht="15.75" customHeight="1">
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
-        <v>148958.0</v>
+        <v>148958</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>119</v>
@@ -3295,12 +3358,12 @@
         <v>13</v>
       </c>
       <c r="F81" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H81" s="10" t="s">
+      <c r="H81" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I81" s="3" t="s">
@@ -3308,9 +3371,9 @@
       </c>
       <c r="J81" s="4"/>
     </row>
-    <row r="82" ht="15.75" customHeight="1">
+    <row r="82" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
-        <v>148961.0</v>
+        <v>148961</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>119</v>
@@ -3325,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="F82" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>15</v>
@@ -3338,9 +3401,9 @@
       </c>
       <c r="J82" s="4"/>
     </row>
-    <row r="83" ht="15.75" customHeight="1">
+    <row r="83" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>148969.0</v>
+        <v>148969</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>119</v>
@@ -3355,7 +3418,7 @@
         <v>13</v>
       </c>
       <c r="F83" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>15</v>
@@ -3368,9 +3431,9 @@
       </c>
       <c r="J83" s="4"/>
     </row>
-    <row r="84" ht="15.75" customHeight="1">
+    <row r="84" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
-        <v>148967.0</v>
+        <v>148967</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>119</v>
@@ -3385,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="F84" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>15</v>
@@ -3398,9 +3461,9 @@
       </c>
       <c r="J84" s="4"/>
     </row>
-    <row r="85" ht="15.75" customHeight="1">
+    <row r="85" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
-        <v>148963.0</v>
+        <v>148963</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>119</v>
@@ -3415,7 +3478,7 @@
         <v>13</v>
       </c>
       <c r="F85" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>14</v>
@@ -3428,9 +3491,9 @@
       </c>
       <c r="J85" s="4"/>
     </row>
-    <row r="86" ht="15.75" customHeight="1">
+    <row r="86" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
-        <v>148965.0</v>
+        <v>148965</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>119</v>
@@ -3445,12 +3508,12 @@
         <v>13</v>
       </c>
       <c r="F86" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H86" s="10" t="s">
+      <c r="H86" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -3458,9 +3521,9 @@
       </c>
       <c r="J86" s="4"/>
     </row>
-    <row r="87" ht="15.75" customHeight="1">
+    <row r="87" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
-        <v>148968.0</v>
+        <v>148968</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>119</v>
@@ -3475,22 +3538,22 @@
         <v>13</v>
       </c>
       <c r="F87" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H87" s="10" t="s">
+      <c r="H87" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I87" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J87" s="12"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
+      <c r="J87" s="11"/>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
-        <v>148966.0</v>
+        <v>148966</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>119</v>
@@ -3505,7 +3568,7 @@
         <v>13</v>
       </c>
       <c r="F88" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>15</v>
@@ -3518,9 +3581,9 @@
       </c>
       <c r="J88" s="4"/>
     </row>
-    <row r="89" ht="15.75" customHeight="1">
+    <row r="89" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
-        <v>148959.0</v>
+        <v>148959</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>119</v>
@@ -3535,12 +3598,12 @@
         <v>13</v>
       </c>
       <c r="F89" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H89" s="10" t="s">
+      <c r="H89" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -3548,9 +3611,9 @@
       </c>
       <c r="J89" s="4"/>
     </row>
-    <row r="90" ht="15.75" customHeight="1">
+    <row r="90" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
-        <v>148956.0</v>
+        <v>148956</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>119</v>
@@ -3565,12 +3628,12 @@
         <v>13</v>
       </c>
       <c r="F90" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="H90" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -3578,9 +3641,9 @@
       </c>
       <c r="J90" s="4"/>
     </row>
-    <row r="91" ht="15.75" customHeight="1">
+    <row r="91" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
-        <v>148970.0</v>
+        <v>148970</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>119</v>
@@ -3595,12 +3658,12 @@
         <v>13</v>
       </c>
       <c r="F91" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="H91" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I91" s="3" t="s">
@@ -3608,9 +3671,9 @@
       </c>
       <c r="J91" s="4"/>
     </row>
-    <row r="92" ht="15.75" customHeight="1">
+    <row r="92" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>148962.0</v>
+        <v>148962</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>119</v>
@@ -3625,12 +3688,12 @@
         <v>13</v>
       </c>
       <c r="F92" s="3">
-        <v>30000.0</v>
+        <v>30000</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H92" s="10" t="s">
+      <c r="H92" s="3" t="s">
         <v>14</v>
       </c>
       <c r="I92" s="3" t="s">
@@ -3638,9 +3701,9 @@
       </c>
       <c r="J92" s="4"/>
     </row>
-    <row r="93" ht="15.75" customHeight="1">
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
-        <v>147101.0</v>
+        <v>147101</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>119</v>
@@ -3655,22 +3718,22 @@
         <v>13</v>
       </c>
       <c r="F93" s="3">
-        <v>7000.0</v>
+        <v>7000</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>15</v>
+        <v>142</v>
       </c>
       <c r="I93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J93" s="12"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
+      <c r="J93" s="11"/>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
-        <v>325040.0</v>
+        <v>325040</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>138</v>
@@ -3685,22 +3748,22 @@
         <v>13</v>
       </c>
       <c r="F94" s="3">
-        <v>12000.0</v>
+        <v>12000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>72</v>
       </c>
       <c r="J94" s="3"/>
     </row>
-    <row r="95" ht="15.75" customHeight="1">
+    <row r="95" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
-        <v>237940.0</v>
+        <v>237940</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>138</v>
@@ -3715,20 +3778,20 @@
         <v>13</v>
       </c>
       <c r="F95" s="3">
-        <v>9000.0</v>
+        <v>9000</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>15</v>
+        <v>144</v>
       </c>
       <c r="I95" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J95" s="12"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
+      <c r="J95" s="11"/>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -3740,7 +3803,7 @@
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
     </row>
-    <row r="97" ht="15.75" customHeight="1">
+    <row r="97" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -3752,7 +3815,7 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
     </row>
-    <row r="98" ht="15.75" customHeight="1">
+    <row r="98" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -3764,7 +3827,7 @@
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
     </row>
-    <row r="99" ht="15.75" customHeight="1">
+    <row r="99" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -3776,7 +3839,7 @@
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
     </row>
-    <row r="100" ht="15.75" customHeight="1">
+    <row r="100" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -3788,7 +3851,7 @@
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
     </row>
-    <row r="101" ht="15.75" customHeight="1">
+    <row r="101" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -3798,9 +3861,9 @@
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
+      <c r="J101" s="12"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -3812,7 +3875,7 @@
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
     </row>
-    <row r="103" ht="15.75" customHeight="1">
+    <row r="103" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -3824,7 +3887,7 @@
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
     </row>
-    <row r="104" ht="15.75" customHeight="1">
+    <row r="104" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -3836,7 +3899,7 @@
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
     </row>
-    <row r="105" ht="15.75" customHeight="1">
+    <row r="105" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -3848,7 +3911,7 @@
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
     </row>
-    <row r="106" ht="15.75" customHeight="1">
+    <row r="106" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -3860,7 +3923,7 @@
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
     </row>
-    <row r="107" ht="15.75" customHeight="1">
+    <row r="107" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -3872,7 +3935,7 @@
       <c r="I107" s="4"/>
       <c r="J107" s="4"/>
     </row>
-    <row r="108" ht="15.75" customHeight="1">
+    <row r="108" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -3884,7 +3947,7 @@
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
     </row>
-    <row r="109" ht="15.75" customHeight="1">
+    <row r="109" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -3896,7 +3959,7 @@
       <c r="I109" s="4"/>
       <c r="J109" s="4"/>
     </row>
-    <row r="110" ht="15.75" customHeight="1">
+    <row r="110" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -3908,7 +3971,7 @@
       <c r="I110" s="4"/>
       <c r="J110" s="4"/>
     </row>
-    <row r="111" ht="15.75" customHeight="1">
+    <row r="111" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -3920,7 +3983,7 @@
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
     </row>
-    <row r="112" ht="15.75" customHeight="1">
+    <row r="112" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -3932,7 +3995,7 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
     </row>
-    <row r="113" ht="15.75" customHeight="1">
+    <row r="113" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -3944,7 +4007,7 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
     </row>
-    <row r="114" ht="15.75" customHeight="1">
+    <row r="114" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -3956,7 +4019,7 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
     </row>
-    <row r="115" ht="15.75" customHeight="1">
+    <row r="115" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -3968,7 +4031,7 @@
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
     </row>
-    <row r="116" ht="15.75" customHeight="1">
+    <row r="116" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -3980,7 +4043,7 @@
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
     </row>
-    <row r="117" ht="15.75" customHeight="1">
+    <row r="117" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -3992,7 +4055,7 @@
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
     </row>
-    <row r="118" ht="15.75" customHeight="1">
+    <row r="118" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -4004,7 +4067,7 @@
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
     </row>
-    <row r="119" ht="15.75" customHeight="1">
+    <row r="119" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -4016,7 +4079,7 @@
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1">
+    <row r="120" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -4028,7 +4091,7 @@
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
     </row>
-    <row r="121" ht="15.75" customHeight="1">
+    <row r="121" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -4040,7 +4103,7 @@
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
     </row>
-    <row r="122" ht="15.75" customHeight="1">
+    <row r="122" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -4052,7 +4115,7 @@
       <c r="I122" s="4"/>
       <c r="J122" s="4"/>
     </row>
-    <row r="123" ht="15.75" customHeight="1">
+    <row r="123" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -4064,7 +4127,7 @@
       <c r="I123" s="4"/>
       <c r="J123" s="4"/>
     </row>
-    <row r="124" ht="15.75" customHeight="1">
+    <row r="124" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -4076,7 +4139,7 @@
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
     </row>
-    <row r="125" ht="15.75" customHeight="1">
+    <row r="125" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -4088,7 +4151,7 @@
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
     </row>
-    <row r="126" ht="15.75" customHeight="1">
+    <row r="126" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -4100,7 +4163,7 @@
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
     </row>
-    <row r="127" ht="15.75" customHeight="1">
+    <row r="127" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -4112,7 +4175,7 @@
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
     </row>
-    <row r="128" ht="15.75" customHeight="1">
+    <row r="128" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -4124,7 +4187,7 @@
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
     </row>
-    <row r="129" ht="15.75" customHeight="1">
+    <row r="129" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="4"/>
@@ -4136,7 +4199,7 @@
       <c r="I129" s="4"/>
       <c r="J129" s="4"/>
     </row>
-    <row r="130" ht="15.75" customHeight="1">
+    <row r="130" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="4"/>
@@ -4148,7 +4211,7 @@
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" ht="15.75" customHeight="1">
+    <row r="131" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="4"/>
@@ -4160,7 +4223,7 @@
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" ht="15.75" customHeight="1">
+    <row r="132" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="4"/>
@@ -4172,7 +4235,7 @@
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" ht="15.75" customHeight="1">
+    <row r="133" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="4"/>
@@ -4184,7 +4247,7 @@
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" ht="15.75" customHeight="1">
+    <row r="134" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="4"/>
@@ -4196,7 +4259,7 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" ht="15.75" customHeight="1">
+    <row r="135" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="4"/>
@@ -4208,7 +4271,7 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" ht="15.75" customHeight="1">
+    <row r="136" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="4"/>
@@ -4220,7 +4283,7 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" ht="15.75" customHeight="1">
+    <row r="137" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="4"/>
@@ -4232,7 +4295,7 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" ht="15.75" customHeight="1">
+    <row r="138" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="4"/>
@@ -4244,7 +4307,7 @@
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" ht="15.75" customHeight="1">
+    <row r="139" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="4"/>
@@ -4256,7 +4319,7 @@
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" ht="15.75" customHeight="1">
+    <row r="140" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="4"/>
@@ -4268,7 +4331,7 @@
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" ht="15.75" customHeight="1">
+    <row r="141" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="4"/>
@@ -4280,7 +4343,7 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" ht="15.75" customHeight="1">
+    <row r="142" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="4"/>
@@ -4292,7 +4355,7 @@
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" ht="15.75" customHeight="1">
+    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="4"/>
@@ -4304,7 +4367,7 @@
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" ht="15.75" customHeight="1">
+    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="4"/>
@@ -4316,7 +4379,7 @@
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" ht="15.75" customHeight="1">
+    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="4"/>
@@ -4328,7 +4391,7 @@
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" ht="15.75" customHeight="1">
+    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="4"/>
@@ -4340,7 +4403,7 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" ht="15.75" customHeight="1">
+    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="4"/>
@@ -4352,7 +4415,7 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" ht="15.75" customHeight="1">
+    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="4"/>
@@ -4364,7 +4427,7 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" ht="15.75" customHeight="1">
+    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="4"/>
@@ -4376,7 +4439,7 @@
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" ht="15.75" customHeight="1">
+    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="4"/>
@@ -4388,7 +4451,7 @@
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" ht="15.75" customHeight="1">
+    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="4"/>
@@ -4400,7 +4463,7 @@
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" ht="15.75" customHeight="1">
+    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="4"/>
@@ -4412,7 +4475,7 @@
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" ht="15.75" customHeight="1">
+    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="4"/>
@@ -4424,7 +4487,7 @@
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" ht="15.75" customHeight="1">
+    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="4"/>
@@ -4436,7 +4499,7 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" ht="15.75" customHeight="1">
+    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="4"/>
@@ -4448,7 +4511,7 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" ht="15.75" customHeight="1">
+    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="4"/>
@@ -4460,7 +4523,7 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" ht="15.75" customHeight="1">
+    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="4"/>
@@ -4472,7 +4535,7 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" ht="15.75" customHeight="1">
+    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="4"/>
@@ -4484,7 +4547,7 @@
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" ht="15.75" customHeight="1">
+    <row r="159" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="4"/>
@@ -4496,7 +4559,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" ht="15.75" customHeight="1">
+    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="4"/>
@@ -4508,7 +4571,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" ht="15.75" customHeight="1">
+    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
@@ -4520,7 +4583,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" ht="15.75" customHeight="1">
+    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -4532,7 +4595,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" ht="15.75" customHeight="1">
+    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -4544,7 +4607,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" ht="15.75" customHeight="1">
+    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -4556,7 +4619,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" ht="15.75" customHeight="1">
+    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -4568,7 +4631,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" ht="15.75" customHeight="1">
+    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -4580,7 +4643,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" ht="15.75" customHeight="1">
+    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -4592,7 +4655,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" ht="15.75" customHeight="1">
+    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -4604,7 +4667,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" ht="15.75" customHeight="1">
+    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -4616,7 +4679,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" ht="15.75" customHeight="1">
+    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -4628,7 +4691,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" ht="15.75" customHeight="1">
+    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -4640,7 +4703,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" ht="15.75" customHeight="1">
+    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -4652,7 +4715,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" ht="15.75" customHeight="1">
+    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -4664,7 +4727,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" ht="15.75" customHeight="1">
+    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -4676,7 +4739,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" ht="15.75" customHeight="1">
+    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -4688,7 +4751,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" ht="15.75" customHeight="1">
+    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -4700,7 +4763,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" ht="15.75" customHeight="1">
+    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -4712,7 +4775,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" ht="15.75" customHeight="1">
+    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="4"/>
@@ -4724,7 +4787,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" ht="15.75" customHeight="1">
+    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="4"/>
@@ -4736,7 +4799,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" ht="15.75" customHeight="1">
+    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -4748,7 +4811,7 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
     </row>
-    <row r="181" ht="15.75" customHeight="1">
+    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="4"/>
@@ -4760,7 +4823,7 @@
       <c r="I181" s="4"/>
       <c r="J181" s="4"/>
     </row>
-    <row r="182" ht="15.75" customHeight="1">
+    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="4"/>
@@ -4772,7 +4835,7 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
     </row>
-    <row r="183" ht="15.75" customHeight="1">
+    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="4"/>
@@ -4784,7 +4847,7 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
     </row>
-    <row r="184" ht="15.75" customHeight="1">
+    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="4"/>
@@ -4796,7 +4859,7 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
     </row>
-    <row r="185" ht="15.75" customHeight="1">
+    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="4"/>
@@ -4808,7 +4871,7 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
     </row>
-    <row r="186" ht="15.75" customHeight="1">
+    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="4"/>
@@ -4820,7 +4883,7 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
     </row>
-    <row r="187" ht="15.75" customHeight="1">
+    <row r="187" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="4"/>
@@ -4832,7 +4895,7 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
     </row>
-    <row r="188" ht="15.75" customHeight="1">
+    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="4"/>
@@ -4844,7 +4907,7 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
     </row>
-    <row r="189" ht="15.75" customHeight="1">
+    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="4"/>
@@ -4856,7 +4919,7 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
     </row>
-    <row r="190" ht="15.75" customHeight="1">
+    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="4"/>
@@ -4868,7 +4931,7 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
     </row>
-    <row r="191" ht="15.75" customHeight="1">
+    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="4"/>
@@ -4880,7 +4943,7 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
     </row>
-    <row r="192" ht="15.75" customHeight="1">
+    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="4"/>
@@ -4892,7 +4955,7 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
     </row>
-    <row r="193" ht="15.75" customHeight="1">
+    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="4"/>
@@ -4904,7 +4967,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
     </row>
-    <row r="194" ht="15.75" customHeight="1">
+    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="4"/>
@@ -4916,7 +4979,7 @@
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
     </row>
-    <row r="195" ht="15.75" customHeight="1">
+    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="4"/>
@@ -4928,7 +4991,7 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
     </row>
-    <row r="196" ht="15.75" customHeight="1">
+    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="4"/>
@@ -4940,7 +5003,7 @@
       <c r="I196" s="4"/>
       <c r="J196" s="4"/>
     </row>
-    <row r="197" ht="15.75" customHeight="1">
+    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="4"/>
@@ -4952,7 +5015,7 @@
       <c r="I197" s="4"/>
       <c r="J197" s="4"/>
     </row>
-    <row r="198" ht="15.75" customHeight="1">
+    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="4"/>
@@ -4964,7 +5027,7 @@
       <c r="I198" s="4"/>
       <c r="J198" s="4"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1">
+    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="4"/>
@@ -4976,7 +5039,7 @@
       <c r="I199" s="4"/>
       <c r="J199" s="4"/>
     </row>
-    <row r="200" ht="15.75" customHeight="1">
+    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="4"/>
@@ -4988,7 +5051,7 @@
       <c r="I200" s="4"/>
       <c r="J200" s="4"/>
     </row>
-    <row r="201" ht="15.75" customHeight="1">
+    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="4"/>
@@ -5000,7 +5063,7 @@
       <c r="I201" s="4"/>
       <c r="J201" s="4"/>
     </row>
-    <row r="202" ht="15.75" customHeight="1">
+    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="4"/>
@@ -5012,7 +5075,7 @@
       <c r="I202" s="4"/>
       <c r="J202" s="4"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="4"/>
@@ -5024,7 +5087,7 @@
       <c r="I203" s="4"/>
       <c r="J203" s="4"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="4"/>
@@ -5036,7 +5099,7 @@
       <c r="I204" s="4"/>
       <c r="J204" s="4"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="4"/>
@@ -5048,7 +5111,7 @@
       <c r="I205" s="4"/>
       <c r="J205" s="4"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="4"/>
@@ -5060,7 +5123,7 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="4"/>
@@ -5072,7 +5135,7 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="4"/>
@@ -5084,7 +5147,7 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="4"/>
@@ -5096,7 +5159,7 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="4"/>
@@ -5108,7 +5171,7 @@
       <c r="I210" s="4"/>
       <c r="J210" s="4"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="4"/>
@@ -5120,7 +5183,7 @@
       <c r="I211" s="4"/>
       <c r="J211" s="4"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="4"/>
@@ -5132,7 +5195,7 @@
       <c r="I212" s="4"/>
       <c r="J212" s="4"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="4"/>
@@ -5144,7 +5207,7 @@
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="4"/>
@@ -5156,7 +5219,7 @@
       <c r="I214" s="4"/>
       <c r="J214" s="4"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="4"/>
@@ -5168,7 +5231,7 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="4"/>
@@ -5180,7 +5243,7 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="4"/>
@@ -5192,7 +5255,7 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="4"/>
@@ -5204,7 +5267,7 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -5216,7 +5279,7 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="4"/>
@@ -5228,7 +5291,7 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="4"/>
@@ -5240,7 +5303,7 @@
       <c r="I221" s="4"/>
       <c r="J221" s="4"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="4"/>
@@ -5252,7 +5315,7 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="4"/>
@@ -5264,7 +5327,7 @@
       <c r="I223" s="4"/>
       <c r="J223" s="4"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="4"/>
@@ -5276,7 +5339,7 @@
       <c r="I224" s="4"/>
       <c r="J224" s="4"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="4"/>
@@ -5288,7 +5351,7 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="4"/>
@@ -5300,7 +5363,7 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -5312,7 +5375,7 @@
       <c r="I227" s="4"/>
       <c r="J227" s="4"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="4"/>
@@ -5324,7 +5387,7 @@
       <c r="I228" s="4"/>
       <c r="J228" s="4"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="4"/>
@@ -5336,7 +5399,7 @@
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="4"/>
@@ -5348,7 +5411,7 @@
       <c r="I230" s="4"/>
       <c r="J230" s="4"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="4"/>
@@ -5360,7 +5423,7 @@
       <c r="I231" s="4"/>
       <c r="J231" s="4"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="4"/>
@@ -5372,7 +5435,7 @@
       <c r="I232" s="4"/>
       <c r="J232" s="4"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="4"/>
@@ -5384,7 +5447,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="4"/>
@@ -5396,7 +5459,7 @@
       <c r="I234" s="4"/>
       <c r="J234" s="4"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="4"/>
@@ -5408,7 +5471,7 @@
       <c r="I235" s="4"/>
       <c r="J235" s="4"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="4"/>
@@ -5420,7 +5483,7 @@
       <c r="I236" s="4"/>
       <c r="J236" s="4"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="4"/>
@@ -5432,7 +5495,7 @@
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="4"/>
@@ -5444,7 +5507,7 @@
       <c r="I238" s="4"/>
       <c r="J238" s="4"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="4"/>
@@ -5456,7 +5519,7 @@
       <c r="I239" s="4"/>
       <c r="J239" s="4"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="4"/>
@@ -5468,7 +5531,7 @@
       <c r="I240" s="4"/>
       <c r="J240" s="4"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="4"/>
@@ -5480,7 +5543,7 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="4"/>
@@ -5492,7 +5555,7 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="4"/>
@@ -5504,7 +5567,7 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="4"/>
@@ -5516,7 +5579,7 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="4"/>
@@ -5528,7 +5591,7 @@
       <c r="I245" s="4"/>
       <c r="J245" s="4"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="4"/>
@@ -5540,7 +5603,7 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="4"/>
@@ -5552,7 +5615,7 @@
       <c r="I247" s="4"/>
       <c r="J247" s="4"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="4"/>
@@ -5564,7 +5627,7 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="4"/>
@@ -5576,7 +5639,7 @@
       <c r="I249" s="4"/>
       <c r="J249" s="4"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="4"/>
@@ -5588,7 +5651,7 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="4"/>
@@ -5600,7 +5663,7 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="4"/>
@@ -5612,7 +5675,7 @@
       <c r="I252" s="4"/>
       <c r="J252" s="4"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="4"/>
@@ -5624,7 +5687,7 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="4"/>
@@ -5636,7 +5699,7 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="4"/>
@@ -5648,7 +5711,7 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="4"/>
@@ -5660,7 +5723,7 @@
       <c r="I256" s="4"/>
       <c r="J256" s="4"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="4"/>
@@ -5672,7 +5735,7 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="4"/>
@@ -5684,7 +5747,7 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="4"/>
@@ -5696,7 +5759,7 @@
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="4"/>
@@ -5708,7 +5771,7 @@
       <c r="I260" s="4"/>
       <c r="J260" s="4"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="4"/>
@@ -5720,7 +5783,7 @@
       <c r="I261" s="4"/>
       <c r="J261" s="4"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="4"/>
@@ -5732,7 +5795,7 @@
       <c r="I262" s="4"/>
       <c r="J262" s="4"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="4"/>
@@ -5744,7 +5807,7 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="4"/>
@@ -5756,7 +5819,7 @@
       <c r="I264" s="4"/>
       <c r="J264" s="4"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="4"/>
@@ -5768,7 +5831,7 @@
       <c r="I265" s="4"/>
       <c r="J265" s="4"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -5780,7 +5843,7 @@
       <c r="I266" s="4"/>
       <c r="J266" s="4"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="4"/>
@@ -5792,7 +5855,7 @@
       <c r="I267" s="4"/>
       <c r="J267" s="4"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="4"/>
@@ -5804,7 +5867,7 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="4"/>
@@ -5816,7 +5879,7 @@
       <c r="I269" s="4"/>
       <c r="J269" s="4"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="4"/>
@@ -5828,7 +5891,7 @@
       <c r="I270" s="4"/>
       <c r="J270" s="4"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="4"/>
@@ -5840,7 +5903,7 @@
       <c r="I271" s="4"/>
       <c r="J271" s="4"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="4"/>
@@ -5852,7 +5915,7 @@
       <c r="I272" s="4"/>
       <c r="J272" s="4"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="4"/>
@@ -5864,7 +5927,7 @@
       <c r="I273" s="4"/>
       <c r="J273" s="4"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="4"/>
@@ -5876,7 +5939,7 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="4"/>
@@ -5888,7 +5951,7 @@
       <c r="I275" s="4"/>
       <c r="J275" s="4"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="4"/>
@@ -5900,7 +5963,7 @@
       <c r="I276" s="4"/>
       <c r="J276" s="4"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="4"/>
@@ -5912,7 +5975,7 @@
       <c r="I277" s="4"/>
       <c r="J277" s="4"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="4"/>
@@ -5924,7 +5987,7 @@
       <c r="I278" s="4"/>
       <c r="J278" s="4"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="4"/>
@@ -5936,7 +5999,7 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="4"/>
@@ -5948,7 +6011,7 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="4"/>
@@ -5960,7 +6023,7 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="4"/>
@@ -5972,7 +6035,7 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="4"/>
@@ -5984,7 +6047,7 @@
       <c r="I283" s="4"/>
       <c r="J283" s="4"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="4"/>
@@ -5996,7 +6059,7 @@
       <c r="I284" s="4"/>
       <c r="J284" s="4"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="4"/>
@@ -6008,7 +6071,7 @@
       <c r="I285" s="4"/>
       <c r="J285" s="4"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="4"/>
@@ -6020,7 +6083,7 @@
       <c r="I286" s="4"/>
       <c r="J286" s="4"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="4"/>
@@ -6032,7 +6095,7 @@
       <c r="I287" s="4"/>
       <c r="J287" s="4"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="4"/>
@@ -6044,7 +6107,7 @@
       <c r="I288" s="4"/>
       <c r="J288" s="4"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="4"/>
@@ -6056,7 +6119,7 @@
       <c r="I289" s="4"/>
       <c r="J289" s="4"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="4"/>
@@ -6068,7 +6131,7 @@
       <c r="I290" s="4"/>
       <c r="J290" s="4"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="4"/>
@@ -6080,7 +6143,7 @@
       <c r="I291" s="4"/>
       <c r="J291" s="4"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="4"/>
@@ -6092,7 +6155,7 @@
       <c r="I292" s="4"/>
       <c r="J292" s="4"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="4"/>
@@ -6104,7 +6167,7 @@
       <c r="I293" s="4"/>
       <c r="J293" s="4"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="4"/>
@@ -6116,7 +6179,7 @@
       <c r="I294" s="4"/>
       <c r="J294" s="4"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="4"/>
@@ -6128,717 +6191,715 @@
       <c r="I295" s="4"/>
       <c r="J295" s="4"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="296" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="$A$1:$J$82"/>
-  <printOptions/>
-  <pageMargins bottom="0.787401575" footer="0.0" header="0.0" left="0.511811024" right="0.511811024" top="0.787401575"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <autoFilter ref="A1:J82" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>